--- a/Planning/overview_planning_25_NO_sustsol.xlsx
+++ b/Planning/overview_planning_25_NO_sustsol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernd/financials/Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADCCC17-D9CC-0E4C-AE30-ED086FAA511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D3AA26-C4A2-344E-AF9F-D2737533A3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17040" yWindow="620" windowWidth="40280" windowHeight="33220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="34200" windowHeight="21440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview25" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="170">
   <si>
     <t>Financial overview plan 2025</t>
   </si>
@@ -541,6 +541,9 @@
   </si>
   <si>
     <t>Revolut Cover</t>
+  </si>
+  <si>
+    <t>SG Incorporation</t>
   </si>
 </sst>
 </file>
@@ -951,7 +954,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1097,13 +1100,6 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Accent 1 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1312,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMC173"/>
+  <dimension ref="A1:AMC174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.5" customHeight="1"/>
@@ -2880,14 +2876,9 @@
         <v>165</v>
       </c>
       <c r="H96" s="89"/>
-      <c r="I96" s="116"/>
-      <c r="J96" s="116"/>
-      <c r="K96" s="116"/>
-      <c r="L96" s="117"/>
-      <c r="M96" s="117"/>
       <c r="N96" s="92"/>
     </row>
-    <row r="97" spans="1:1017" ht="15">
+    <row r="97" spans="2:14" ht="15">
       <c r="B97" s="26">
         <v>45901</v>
       </c>
@@ -2898,14 +2889,9 @@
         <v>164</v>
       </c>
       <c r="H97" s="89"/>
-      <c r="I97" s="116"/>
-      <c r="J97" s="116"/>
-      <c r="K97" s="116"/>
-      <c r="L97" s="117"/>
-      <c r="M97" s="117"/>
       <c r="N97" s="92"/>
     </row>
-    <row r="98" spans="1:1017" ht="15">
+    <row r="98" spans="2:14" ht="15">
       <c r="B98" s="20">
         <v>45894</v>
       </c>
@@ -2919,7 +2905,7 @@
       <c r="H98" s="89"/>
       <c r="N98" s="92"/>
     </row>
-    <row r="99" spans="1:1017" ht="15">
+    <row r="99" spans="2:14" ht="15">
       <c r="B99" s="26">
         <v>45918</v>
       </c>
@@ -2940,12 +2926,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="100" spans="1:1017" ht="15">
+    <row r="100" spans="2:14" ht="15">
       <c r="B100" s="26">
         <v>45930</v>
       </c>
       <c r="D100" s="4">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="F100" s="92" t="s">
         <v>156</v>
@@ -2963,7 +2949,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:1017" ht="15">
+    <row r="101" spans="2:14" ht="15">
       <c r="B101" s="26">
         <v>45930</v>
       </c>
@@ -2977,7 +2963,7 @@
       <c r="H101" s="90"/>
       <c r="N101" s="92"/>
     </row>
-    <row r="102" spans="1:1017" ht="15">
+    <row r="102" spans="2:14" ht="15">
       <c r="B102" s="26">
         <v>45930</v>
       </c>
@@ -2992,13 +2978,13 @@
       <c r="L102" s="4"/>
       <c r="N102" s="92"/>
     </row>
-    <row r="103" spans="1:1017" ht="15">
+    <row r="103" spans="2:14" ht="15">
       <c r="B103" s="20">
         <v>45931</v>
       </c>
       <c r="C103" s="18">
         <f>SUM(C98:E102)</f>
-        <v>26640.200000000004</v>
+        <v>26715.200000000004</v>
       </c>
       <c r="D103" s="18"/>
       <c r="E103" s="18"/>
@@ -3016,1296 +3002,294 @@
       <c r="M103" s="29"/>
       <c r="N103" s="104"/>
     </row>
-    <row r="104" spans="1:1017" s="115" customFormat="1" ht="15">
-      <c r="A104" s="111"/>
+    <row r="104" spans="2:14" ht="15">
       <c r="B104" s="26">
         <v>45938</v>
       </c>
-      <c r="C104" s="112"/>
-      <c r="D104" s="112">
+      <c r="D104" s="4">
         <v>1650</v>
       </c>
-      <c r="E104" s="112"/>
-      <c r="F104" s="113" t="s">
+      <c r="F104" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="G104" s="111"/>
       <c r="H104" s="26">
         <v>46016</v>
       </c>
-      <c r="I104" s="4"/>
       <c r="J104" s="4">
-        <v>15000</v>
-      </c>
-      <c r="K104" s="4"/>
-      <c r="L104" s="6"/>
-      <c r="M104" s="6"/>
+        <v>10000</v>
+      </c>
       <c r="N104" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="O104" s="114"/>
-      <c r="P104" s="111"/>
-      <c r="Q104" s="111"/>
-      <c r="R104" s="111"/>
-      <c r="S104" s="111"/>
-      <c r="T104" s="111"/>
-      <c r="U104" s="111"/>
-      <c r="V104" s="111"/>
-      <c r="W104" s="111"/>
-      <c r="X104" s="111"/>
-      <c r="Y104" s="111"/>
-      <c r="Z104" s="111"/>
-      <c r="AA104" s="111"/>
-      <c r="AB104" s="111"/>
-      <c r="AC104" s="111"/>
-      <c r="AD104" s="111"/>
-      <c r="AE104" s="111"/>
-      <c r="AF104" s="111"/>
-      <c r="AG104" s="111"/>
-      <c r="AH104" s="111"/>
-      <c r="AI104" s="111"/>
-      <c r="AJ104" s="111"/>
-      <c r="AK104" s="111"/>
-      <c r="AL104" s="111"/>
-      <c r="AM104" s="111"/>
-      <c r="AN104" s="111"/>
-      <c r="AO104" s="111"/>
-      <c r="AP104" s="111"/>
-      <c r="AQ104" s="111"/>
-      <c r="AR104" s="111"/>
-      <c r="AS104" s="111"/>
-      <c r="AT104" s="111"/>
-      <c r="AU104" s="111"/>
-      <c r="AV104" s="111"/>
-      <c r="AW104" s="111"/>
-      <c r="AX104" s="111"/>
-      <c r="AY104" s="111"/>
-      <c r="AZ104" s="111"/>
-      <c r="BA104" s="111"/>
-      <c r="BB104" s="111"/>
-      <c r="BC104" s="111"/>
-      <c r="BD104" s="111"/>
-      <c r="BE104" s="111"/>
-      <c r="BF104" s="111"/>
-      <c r="BG104" s="111"/>
-      <c r="BH104" s="111"/>
-      <c r="BI104" s="111"/>
-      <c r="BJ104" s="111"/>
-      <c r="BK104" s="111"/>
-      <c r="BL104" s="111"/>
-      <c r="BM104" s="111"/>
-      <c r="BN104" s="111"/>
-      <c r="BO104" s="111"/>
-      <c r="BP104" s="111"/>
-      <c r="BQ104" s="111"/>
-      <c r="BR104" s="111"/>
-      <c r="BS104" s="111"/>
-      <c r="BT104" s="111"/>
-      <c r="BU104" s="111"/>
-      <c r="BV104" s="111"/>
-      <c r="BW104" s="111"/>
-      <c r="BX104" s="111"/>
-      <c r="BY104" s="111"/>
-      <c r="BZ104" s="111"/>
-      <c r="CA104" s="111"/>
-      <c r="CB104" s="111"/>
-      <c r="CC104" s="111"/>
-      <c r="CD104" s="111"/>
-      <c r="CE104" s="111"/>
-      <c r="CF104" s="111"/>
-      <c r="CG104" s="111"/>
-      <c r="CH104" s="111"/>
-      <c r="CI104" s="111"/>
-      <c r="CJ104" s="111"/>
-      <c r="CK104" s="111"/>
-      <c r="CL104" s="111"/>
-      <c r="CM104" s="111"/>
-      <c r="CN104" s="111"/>
-      <c r="CO104" s="111"/>
-      <c r="CP104" s="111"/>
-      <c r="CQ104" s="111"/>
-      <c r="CR104" s="111"/>
-      <c r="CS104" s="111"/>
-      <c r="CT104" s="111"/>
-      <c r="CU104" s="111"/>
-      <c r="CV104" s="111"/>
-      <c r="CW104" s="111"/>
-      <c r="CX104" s="111"/>
-      <c r="CY104" s="111"/>
-      <c r="CZ104" s="111"/>
-      <c r="DA104" s="111"/>
-      <c r="DB104" s="111"/>
-      <c r="DC104" s="111"/>
-      <c r="DD104" s="111"/>
-      <c r="DE104" s="111"/>
-      <c r="DF104" s="111"/>
-      <c r="DG104" s="111"/>
-      <c r="DH104" s="111"/>
-      <c r="DI104" s="111"/>
-      <c r="DJ104" s="111"/>
-      <c r="DK104" s="111"/>
-      <c r="DL104" s="111"/>
-      <c r="DM104" s="111"/>
-      <c r="DN104" s="111"/>
-      <c r="DO104" s="111"/>
-      <c r="DP104" s="111"/>
-      <c r="DQ104" s="111"/>
-      <c r="DR104" s="111"/>
-      <c r="DS104" s="111"/>
-      <c r="DT104" s="111"/>
-      <c r="DU104" s="111"/>
-      <c r="DV104" s="111"/>
-      <c r="DW104" s="111"/>
-      <c r="DX104" s="111"/>
-      <c r="DY104" s="111"/>
-      <c r="DZ104" s="111"/>
-      <c r="EA104" s="111"/>
-      <c r="EB104" s="111"/>
-      <c r="EC104" s="111"/>
-      <c r="ED104" s="111"/>
-      <c r="EE104" s="111"/>
-      <c r="EF104" s="111"/>
-      <c r="EG104" s="111"/>
-      <c r="EH104" s="111"/>
-      <c r="EI104" s="111"/>
-      <c r="EJ104" s="111"/>
-      <c r="EK104" s="111"/>
-      <c r="EL104" s="111"/>
-      <c r="EM104" s="111"/>
-      <c r="EN104" s="111"/>
-      <c r="EO104" s="111"/>
-      <c r="EP104" s="111"/>
-      <c r="EQ104" s="111"/>
-      <c r="ER104" s="111"/>
-      <c r="ES104" s="111"/>
-      <c r="ET104" s="111"/>
-      <c r="EU104" s="111"/>
-      <c r="EV104" s="111"/>
-      <c r="EW104" s="111"/>
-      <c r="EX104" s="111"/>
-      <c r="EY104" s="111"/>
-      <c r="EZ104" s="111"/>
-      <c r="FA104" s="111"/>
-      <c r="FB104" s="111"/>
-      <c r="FC104" s="111"/>
-      <c r="FD104" s="111"/>
-      <c r="FE104" s="111"/>
-      <c r="FF104" s="111"/>
-      <c r="FG104" s="111"/>
-      <c r="FH104" s="111"/>
-      <c r="FI104" s="111"/>
-      <c r="FJ104" s="111"/>
-      <c r="FK104" s="111"/>
-      <c r="FL104" s="111"/>
-      <c r="FM104" s="111"/>
-      <c r="FN104" s="111"/>
-      <c r="FO104" s="111"/>
-      <c r="FP104" s="111"/>
-      <c r="FQ104" s="111"/>
-      <c r="FR104" s="111"/>
-      <c r="FS104" s="111"/>
-      <c r="FT104" s="111"/>
-      <c r="FU104" s="111"/>
-      <c r="FV104" s="111"/>
-      <c r="FW104" s="111"/>
-      <c r="FX104" s="111"/>
-      <c r="FY104" s="111"/>
-      <c r="FZ104" s="111"/>
-      <c r="GA104" s="111"/>
-      <c r="GB104" s="111"/>
-      <c r="GC104" s="111"/>
-      <c r="GD104" s="111"/>
-      <c r="GE104" s="111"/>
-      <c r="GF104" s="111"/>
-      <c r="GG104" s="111"/>
-      <c r="GH104" s="111"/>
-      <c r="GI104" s="111"/>
-      <c r="GJ104" s="111"/>
-      <c r="GK104" s="111"/>
-      <c r="GL104" s="111"/>
-      <c r="GM104" s="111"/>
-      <c r="GN104" s="111"/>
-      <c r="GO104" s="111"/>
-      <c r="GP104" s="111"/>
-      <c r="GQ104" s="111"/>
-      <c r="GR104" s="111"/>
-      <c r="GS104" s="111"/>
-      <c r="GT104" s="111"/>
-      <c r="GU104" s="111"/>
-      <c r="GV104" s="111"/>
-      <c r="GW104" s="111"/>
-      <c r="GX104" s="111"/>
-      <c r="GY104" s="111"/>
-      <c r="GZ104" s="111"/>
-      <c r="HA104" s="111"/>
-      <c r="HB104" s="111"/>
-      <c r="HC104" s="111"/>
-      <c r="HD104" s="111"/>
-      <c r="HE104" s="111"/>
-      <c r="HF104" s="111"/>
-      <c r="HG104" s="111"/>
-      <c r="HH104" s="111"/>
-      <c r="HI104" s="111"/>
-      <c r="HJ104" s="111"/>
-      <c r="HK104" s="111"/>
-      <c r="HL104" s="111"/>
-      <c r="HM104" s="111"/>
-      <c r="HN104" s="111"/>
-      <c r="HO104" s="111"/>
-      <c r="HP104" s="111"/>
-      <c r="HQ104" s="111"/>
-      <c r="HR104" s="111"/>
-      <c r="HS104" s="111"/>
-      <c r="HT104" s="111"/>
-      <c r="HU104" s="111"/>
-      <c r="HV104" s="111"/>
-      <c r="HW104" s="111"/>
-      <c r="HX104" s="111"/>
-      <c r="HY104" s="111"/>
-      <c r="HZ104" s="111"/>
-      <c r="IA104" s="111"/>
-      <c r="IB104" s="111"/>
-      <c r="IC104" s="111"/>
-      <c r="ID104" s="111"/>
-      <c r="IE104" s="111"/>
-      <c r="IF104" s="111"/>
-      <c r="IG104" s="111"/>
-      <c r="IH104" s="111"/>
-      <c r="II104" s="111"/>
-      <c r="IJ104" s="111"/>
-      <c r="IK104" s="111"/>
-      <c r="IL104" s="111"/>
-      <c r="IM104" s="111"/>
-      <c r="IN104" s="111"/>
-      <c r="IO104" s="111"/>
-      <c r="IP104" s="111"/>
-      <c r="IQ104" s="111"/>
-      <c r="IR104" s="111"/>
-      <c r="IS104" s="111"/>
-      <c r="IT104" s="111"/>
-      <c r="IU104" s="111"/>
-      <c r="IV104" s="111"/>
-      <c r="IW104" s="111"/>
-      <c r="IX104" s="111"/>
-      <c r="IY104" s="111"/>
-      <c r="IZ104" s="111"/>
-      <c r="JA104" s="111"/>
-      <c r="JB104" s="111"/>
-      <c r="JC104" s="111"/>
-      <c r="JD104" s="111"/>
-      <c r="JE104" s="111"/>
-      <c r="JF104" s="111"/>
-      <c r="JG104" s="111"/>
-      <c r="JH104" s="111"/>
-      <c r="JI104" s="111"/>
-      <c r="JJ104" s="111"/>
-      <c r="JK104" s="111"/>
-      <c r="JL104" s="111"/>
-      <c r="JM104" s="111"/>
-      <c r="JN104" s="111"/>
-      <c r="JO104" s="111"/>
-      <c r="JP104" s="111"/>
-      <c r="JQ104" s="111"/>
-      <c r="JR104" s="111"/>
-      <c r="JS104" s="111"/>
-      <c r="JT104" s="111"/>
-      <c r="JU104" s="111"/>
-      <c r="JV104" s="111"/>
-      <c r="JW104" s="111"/>
-      <c r="JX104" s="111"/>
-      <c r="JY104" s="111"/>
-      <c r="JZ104" s="111"/>
-      <c r="KA104" s="111"/>
-      <c r="KB104" s="111"/>
-      <c r="KC104" s="111"/>
-      <c r="KD104" s="111"/>
-      <c r="KE104" s="111"/>
-      <c r="KF104" s="111"/>
-      <c r="KG104" s="111"/>
-      <c r="KH104" s="111"/>
-      <c r="KI104" s="111"/>
-      <c r="KJ104" s="111"/>
-      <c r="KK104" s="111"/>
-      <c r="KL104" s="111"/>
-      <c r="KM104" s="111"/>
-      <c r="KN104" s="111"/>
-      <c r="KO104" s="111"/>
-      <c r="KP104" s="111"/>
-      <c r="KQ104" s="111"/>
-      <c r="KR104" s="111"/>
-      <c r="KS104" s="111"/>
-      <c r="KT104" s="111"/>
-      <c r="KU104" s="111"/>
-      <c r="KV104" s="111"/>
-      <c r="KW104" s="111"/>
-      <c r="KX104" s="111"/>
-      <c r="KY104" s="111"/>
-      <c r="KZ104" s="111"/>
-      <c r="LA104" s="111"/>
-      <c r="LB104" s="111"/>
-      <c r="LC104" s="111"/>
-      <c r="LD104" s="111"/>
-      <c r="LE104" s="111"/>
-      <c r="LF104" s="111"/>
-      <c r="LG104" s="111"/>
-      <c r="LH104" s="111"/>
-      <c r="LI104" s="111"/>
-      <c r="LJ104" s="111"/>
-      <c r="LK104" s="111"/>
-      <c r="LL104" s="111"/>
-      <c r="LM104" s="111"/>
-      <c r="LN104" s="111"/>
-      <c r="LO104" s="111"/>
-      <c r="LP104" s="111"/>
-      <c r="LQ104" s="111"/>
-      <c r="LR104" s="111"/>
-      <c r="LS104" s="111"/>
-      <c r="LT104" s="111"/>
-      <c r="LU104" s="111"/>
-      <c r="LV104" s="111"/>
-      <c r="LW104" s="111"/>
-      <c r="LX104" s="111"/>
-      <c r="LY104" s="111"/>
-      <c r="LZ104" s="111"/>
-      <c r="MA104" s="111"/>
-      <c r="MB104" s="111"/>
-      <c r="MC104" s="111"/>
-      <c r="MD104" s="111"/>
-      <c r="ME104" s="111"/>
-      <c r="MF104" s="111"/>
-      <c r="MG104" s="111"/>
-      <c r="MH104" s="111"/>
-      <c r="MI104" s="111"/>
-      <c r="MJ104" s="111"/>
-      <c r="MK104" s="111"/>
-      <c r="ML104" s="111"/>
-      <c r="MM104" s="111"/>
-      <c r="MN104" s="111"/>
-      <c r="MO104" s="111"/>
-      <c r="MP104" s="111"/>
-      <c r="MQ104" s="111"/>
-      <c r="MR104" s="111"/>
-      <c r="MS104" s="111"/>
-      <c r="MT104" s="111"/>
-      <c r="MU104" s="111"/>
-      <c r="MV104" s="111"/>
-      <c r="MW104" s="111"/>
-      <c r="MX104" s="111"/>
-      <c r="MY104" s="111"/>
-      <c r="MZ104" s="111"/>
-      <c r="NA104" s="111"/>
-      <c r="NB104" s="111"/>
-      <c r="NC104" s="111"/>
-      <c r="ND104" s="111"/>
-      <c r="NE104" s="111"/>
-      <c r="NF104" s="111"/>
-      <c r="NG104" s="111"/>
-      <c r="NH104" s="111"/>
-      <c r="NI104" s="111"/>
-      <c r="NJ104" s="111"/>
-      <c r="NK104" s="111"/>
-      <c r="NL104" s="111"/>
-      <c r="NM104" s="111"/>
-      <c r="NN104" s="111"/>
-      <c r="NO104" s="111"/>
-      <c r="NP104" s="111"/>
-      <c r="NQ104" s="111"/>
-      <c r="NR104" s="111"/>
-      <c r="NS104" s="111"/>
-      <c r="NT104" s="111"/>
-      <c r="NU104" s="111"/>
-      <c r="NV104" s="111"/>
-      <c r="NW104" s="111"/>
-      <c r="NX104" s="111"/>
-      <c r="NY104" s="111"/>
-      <c r="NZ104" s="111"/>
-      <c r="OA104" s="111"/>
-      <c r="OB104" s="111"/>
-      <c r="OC104" s="111"/>
-      <c r="OD104" s="111"/>
-      <c r="OE104" s="111"/>
-      <c r="OF104" s="111"/>
-      <c r="OG104" s="111"/>
-      <c r="OH104" s="111"/>
-      <c r="OI104" s="111"/>
-      <c r="OJ104" s="111"/>
-      <c r="OK104" s="111"/>
-      <c r="OL104" s="111"/>
-      <c r="OM104" s="111"/>
-      <c r="ON104" s="111"/>
-      <c r="OO104" s="111"/>
-      <c r="OP104" s="111"/>
-      <c r="OQ104" s="111"/>
-      <c r="OR104" s="111"/>
-      <c r="OS104" s="111"/>
-      <c r="OT104" s="111"/>
-      <c r="OU104" s="111"/>
-      <c r="OV104" s="111"/>
-      <c r="OW104" s="111"/>
-      <c r="OX104" s="111"/>
-      <c r="OY104" s="111"/>
-      <c r="OZ104" s="111"/>
-      <c r="PA104" s="111"/>
-      <c r="PB104" s="111"/>
-      <c r="PC104" s="111"/>
-      <c r="PD104" s="111"/>
-      <c r="PE104" s="111"/>
-      <c r="PF104" s="111"/>
-      <c r="PG104" s="111"/>
-      <c r="PH104" s="111"/>
-      <c r="PI104" s="111"/>
-      <c r="PJ104" s="111"/>
-      <c r="PK104" s="111"/>
-      <c r="PL104" s="111"/>
-      <c r="PM104" s="111"/>
-      <c r="PN104" s="111"/>
-      <c r="PO104" s="111"/>
-      <c r="PP104" s="111"/>
-      <c r="PQ104" s="111"/>
-      <c r="PR104" s="111"/>
-      <c r="PS104" s="111"/>
-      <c r="PT104" s="111"/>
-      <c r="PU104" s="111"/>
-      <c r="PV104" s="111"/>
-      <c r="PW104" s="111"/>
-      <c r="PX104" s="111"/>
-      <c r="PY104" s="111"/>
-      <c r="PZ104" s="111"/>
-      <c r="QA104" s="111"/>
-      <c r="QB104" s="111"/>
-      <c r="QC104" s="111"/>
-      <c r="QD104" s="111"/>
-      <c r="QE104" s="111"/>
-      <c r="QF104" s="111"/>
-      <c r="QG104" s="111"/>
-      <c r="QH104" s="111"/>
-      <c r="QI104" s="111"/>
-      <c r="QJ104" s="111"/>
-      <c r="QK104" s="111"/>
-      <c r="QL104" s="111"/>
-      <c r="QM104" s="111"/>
-      <c r="QN104" s="111"/>
-      <c r="QO104" s="111"/>
-      <c r="QP104" s="111"/>
-      <c r="QQ104" s="111"/>
-      <c r="QR104" s="111"/>
-      <c r="QS104" s="111"/>
-      <c r="QT104" s="111"/>
-      <c r="QU104" s="111"/>
-      <c r="QV104" s="111"/>
-      <c r="QW104" s="111"/>
-      <c r="QX104" s="111"/>
-      <c r="QY104" s="111"/>
-      <c r="QZ104" s="111"/>
-      <c r="RA104" s="111"/>
-      <c r="RB104" s="111"/>
-      <c r="RC104" s="111"/>
-      <c r="RD104" s="111"/>
-      <c r="RE104" s="111"/>
-      <c r="RF104" s="111"/>
-      <c r="RG104" s="111"/>
-      <c r="RH104" s="111"/>
-      <c r="RI104" s="111"/>
-      <c r="RJ104" s="111"/>
-      <c r="RK104" s="111"/>
-      <c r="RL104" s="111"/>
-      <c r="RM104" s="111"/>
-      <c r="RN104" s="111"/>
-      <c r="RO104" s="111"/>
-      <c r="RP104" s="111"/>
-      <c r="RQ104" s="111"/>
-      <c r="RR104" s="111"/>
-      <c r="RS104" s="111"/>
-      <c r="RT104" s="111"/>
-      <c r="RU104" s="111"/>
-      <c r="RV104" s="111"/>
-      <c r="RW104" s="111"/>
-      <c r="RX104" s="111"/>
-      <c r="RY104" s="111"/>
-      <c r="RZ104" s="111"/>
-      <c r="SA104" s="111"/>
-      <c r="SB104" s="111"/>
-      <c r="SC104" s="111"/>
-      <c r="SD104" s="111"/>
-      <c r="SE104" s="111"/>
-      <c r="SF104" s="111"/>
-      <c r="SG104" s="111"/>
-      <c r="SH104" s="111"/>
-      <c r="SI104" s="111"/>
-      <c r="SJ104" s="111"/>
-      <c r="SK104" s="111"/>
-      <c r="SL104" s="111"/>
-      <c r="SM104" s="111"/>
-      <c r="SN104" s="111"/>
-      <c r="SO104" s="111"/>
-      <c r="SP104" s="111"/>
-      <c r="SQ104" s="111"/>
-      <c r="SR104" s="111"/>
-      <c r="SS104" s="111"/>
-      <c r="ST104" s="111"/>
-      <c r="SU104" s="111"/>
-      <c r="SV104" s="111"/>
-      <c r="SW104" s="111"/>
-      <c r="SX104" s="111"/>
-      <c r="SY104" s="111"/>
-      <c r="SZ104" s="111"/>
-      <c r="TA104" s="111"/>
-      <c r="TB104" s="111"/>
-      <c r="TC104" s="111"/>
-      <c r="TD104" s="111"/>
-      <c r="TE104" s="111"/>
-      <c r="TF104" s="111"/>
-      <c r="TG104" s="111"/>
-      <c r="TH104" s="111"/>
-      <c r="TI104" s="111"/>
-      <c r="TJ104" s="111"/>
-      <c r="TK104" s="111"/>
-      <c r="TL104" s="111"/>
-      <c r="TM104" s="111"/>
-      <c r="TN104" s="111"/>
-      <c r="TO104" s="111"/>
-      <c r="TP104" s="111"/>
-      <c r="TQ104" s="111"/>
-      <c r="TR104" s="111"/>
-      <c r="TS104" s="111"/>
-      <c r="TT104" s="111"/>
-      <c r="TU104" s="111"/>
-      <c r="TV104" s="111"/>
-      <c r="TW104" s="111"/>
-      <c r="TX104" s="111"/>
-      <c r="TY104" s="111"/>
-      <c r="TZ104" s="111"/>
-      <c r="UA104" s="111"/>
-      <c r="UB104" s="111"/>
-      <c r="UC104" s="111"/>
-      <c r="UD104" s="111"/>
-      <c r="UE104" s="111"/>
-      <c r="UF104" s="111"/>
-      <c r="UG104" s="111"/>
-      <c r="UH104" s="111"/>
-      <c r="UI104" s="111"/>
-      <c r="UJ104" s="111"/>
-      <c r="UK104" s="111"/>
-      <c r="UL104" s="111"/>
-      <c r="UM104" s="111"/>
-      <c r="UN104" s="111"/>
-      <c r="UO104" s="111"/>
-      <c r="UP104" s="111"/>
-      <c r="UQ104" s="111"/>
-      <c r="UR104" s="111"/>
-      <c r="US104" s="111"/>
-      <c r="UT104" s="111"/>
-      <c r="UU104" s="111"/>
-      <c r="UV104" s="111"/>
-      <c r="UW104" s="111"/>
-      <c r="UX104" s="111"/>
-      <c r="UY104" s="111"/>
-      <c r="UZ104" s="111"/>
-      <c r="VA104" s="111"/>
-      <c r="VB104" s="111"/>
-      <c r="VC104" s="111"/>
-      <c r="VD104" s="111"/>
-      <c r="VE104" s="111"/>
-      <c r="VF104" s="111"/>
-      <c r="VG104" s="111"/>
-      <c r="VH104" s="111"/>
-      <c r="VI104" s="111"/>
-      <c r="VJ104" s="111"/>
-      <c r="VK104" s="111"/>
-      <c r="VL104" s="111"/>
-      <c r="VM104" s="111"/>
-      <c r="VN104" s="111"/>
-      <c r="VO104" s="111"/>
-      <c r="VP104" s="111"/>
-      <c r="VQ104" s="111"/>
-      <c r="VR104" s="111"/>
-      <c r="VS104" s="111"/>
-      <c r="VT104" s="111"/>
-      <c r="VU104" s="111"/>
-      <c r="VV104" s="111"/>
-      <c r="VW104" s="111"/>
-      <c r="VX104" s="111"/>
-      <c r="VY104" s="111"/>
-      <c r="VZ104" s="111"/>
-      <c r="WA104" s="111"/>
-      <c r="WB104" s="111"/>
-      <c r="WC104" s="111"/>
-      <c r="WD104" s="111"/>
-      <c r="WE104" s="111"/>
-      <c r="WF104" s="111"/>
-      <c r="WG104" s="111"/>
-      <c r="WH104" s="111"/>
-      <c r="WI104" s="111"/>
-      <c r="WJ104" s="111"/>
-      <c r="WK104" s="111"/>
-      <c r="WL104" s="111"/>
-      <c r="WM104" s="111"/>
-      <c r="WN104" s="111"/>
-      <c r="WO104" s="111"/>
-      <c r="WP104" s="111"/>
-      <c r="WQ104" s="111"/>
-      <c r="WR104" s="111"/>
-      <c r="WS104" s="111"/>
-      <c r="WT104" s="111"/>
-      <c r="WU104" s="111"/>
-      <c r="WV104" s="111"/>
-      <c r="WW104" s="111"/>
-      <c r="WX104" s="111"/>
-      <c r="WY104" s="111"/>
-      <c r="WZ104" s="111"/>
-      <c r="XA104" s="111"/>
-      <c r="XB104" s="111"/>
-      <c r="XC104" s="111"/>
-      <c r="XD104" s="111"/>
-      <c r="XE104" s="111"/>
-      <c r="XF104" s="111"/>
-      <c r="XG104" s="111"/>
-      <c r="XH104" s="111"/>
-      <c r="XI104" s="111"/>
-      <c r="XJ104" s="111"/>
-      <c r="XK104" s="111"/>
-      <c r="XL104" s="111"/>
-      <c r="XM104" s="111"/>
-      <c r="XN104" s="111"/>
-      <c r="XO104" s="111"/>
-      <c r="XP104" s="111"/>
-      <c r="XQ104" s="111"/>
-      <c r="XR104" s="111"/>
-      <c r="XS104" s="111"/>
-      <c r="XT104" s="111"/>
-      <c r="XU104" s="111"/>
-      <c r="XV104" s="111"/>
-      <c r="XW104" s="111"/>
-      <c r="XX104" s="111"/>
-      <c r="XY104" s="111"/>
-      <c r="XZ104" s="111"/>
-      <c r="YA104" s="111"/>
-      <c r="YB104" s="111"/>
-      <c r="YC104" s="111"/>
-      <c r="YD104" s="111"/>
-      <c r="YE104" s="111"/>
-      <c r="YF104" s="111"/>
-      <c r="YG104" s="111"/>
-      <c r="YH104" s="111"/>
-      <c r="YI104" s="111"/>
-      <c r="YJ104" s="111"/>
-      <c r="YK104" s="111"/>
-      <c r="YL104" s="111"/>
-      <c r="YM104" s="111"/>
-      <c r="YN104" s="111"/>
-      <c r="YO104" s="111"/>
-      <c r="YP104" s="111"/>
-      <c r="YQ104" s="111"/>
-      <c r="YR104" s="111"/>
-      <c r="YS104" s="111"/>
-      <c r="YT104" s="111"/>
-      <c r="YU104" s="111"/>
-      <c r="YV104" s="111"/>
-      <c r="YW104" s="111"/>
-      <c r="YX104" s="111"/>
-      <c r="YY104" s="111"/>
-      <c r="YZ104" s="111"/>
-      <c r="ZA104" s="111"/>
-      <c r="ZB104" s="111"/>
-      <c r="ZC104" s="111"/>
-      <c r="ZD104" s="111"/>
-      <c r="ZE104" s="111"/>
-      <c r="ZF104" s="111"/>
-      <c r="ZG104" s="111"/>
-      <c r="ZH104" s="111"/>
-      <c r="ZI104" s="111"/>
-      <c r="ZJ104" s="111"/>
-      <c r="ZK104" s="111"/>
-      <c r="ZL104" s="111"/>
-      <c r="ZM104" s="111"/>
-      <c r="ZN104" s="111"/>
-      <c r="ZO104" s="111"/>
-      <c r="ZP104" s="111"/>
-      <c r="ZQ104" s="111"/>
-      <c r="ZR104" s="111"/>
-      <c r="ZS104" s="111"/>
-      <c r="ZT104" s="111"/>
-      <c r="ZU104" s="111"/>
-      <c r="ZV104" s="111"/>
-      <c r="ZW104" s="111"/>
-      <c r="ZX104" s="111"/>
-      <c r="ZY104" s="111"/>
-      <c r="ZZ104" s="111"/>
-      <c r="AAA104" s="111"/>
-      <c r="AAB104" s="111"/>
-      <c r="AAC104" s="111"/>
-      <c r="AAD104" s="111"/>
-      <c r="AAE104" s="111"/>
-      <c r="AAF104" s="111"/>
-      <c r="AAG104" s="111"/>
-      <c r="AAH104" s="111"/>
-      <c r="AAI104" s="111"/>
-      <c r="AAJ104" s="111"/>
-      <c r="AAK104" s="111"/>
-      <c r="AAL104" s="111"/>
-      <c r="AAM104" s="111"/>
-      <c r="AAN104" s="111"/>
-      <c r="AAO104" s="111"/>
-      <c r="AAP104" s="111"/>
-      <c r="AAQ104" s="111"/>
-      <c r="AAR104" s="111"/>
-      <c r="AAS104" s="111"/>
-      <c r="AAT104" s="111"/>
-      <c r="AAU104" s="111"/>
-      <c r="AAV104" s="111"/>
-      <c r="AAW104" s="111"/>
-      <c r="AAX104" s="111"/>
-      <c r="AAY104" s="111"/>
-      <c r="AAZ104" s="111"/>
-      <c r="ABA104" s="111"/>
-      <c r="ABB104" s="111"/>
-      <c r="ABC104" s="111"/>
-      <c r="ABD104" s="111"/>
-      <c r="ABE104" s="111"/>
-      <c r="ABF104" s="111"/>
-      <c r="ABG104" s="111"/>
-      <c r="ABH104" s="111"/>
-      <c r="ABI104" s="111"/>
-      <c r="ABJ104" s="111"/>
-      <c r="ABK104" s="111"/>
-      <c r="ABL104" s="111"/>
-      <c r="ABM104" s="111"/>
-      <c r="ABN104" s="111"/>
-      <c r="ABO104" s="111"/>
-      <c r="ABP104" s="111"/>
-      <c r="ABQ104" s="111"/>
-      <c r="ABR104" s="111"/>
-      <c r="ABS104" s="111"/>
-      <c r="ABT104" s="111"/>
-      <c r="ABU104" s="111"/>
-      <c r="ABV104" s="111"/>
-      <c r="ABW104" s="111"/>
-      <c r="ABX104" s="111"/>
-      <c r="ABY104" s="111"/>
-      <c r="ABZ104" s="111"/>
-      <c r="ACA104" s="111"/>
-      <c r="ACB104" s="111"/>
-      <c r="ACC104" s="111"/>
-      <c r="ACD104" s="111"/>
-      <c r="ACE104" s="111"/>
-      <c r="ACF104" s="111"/>
-      <c r="ACG104" s="111"/>
-      <c r="ACH104" s="111"/>
-      <c r="ACI104" s="111"/>
-      <c r="ACJ104" s="111"/>
-      <c r="ACK104" s="111"/>
-      <c r="ACL104" s="111"/>
-      <c r="ACM104" s="111"/>
-      <c r="ACN104" s="111"/>
-      <c r="ACO104" s="111"/>
-      <c r="ACP104" s="111"/>
-      <c r="ACQ104" s="111"/>
-      <c r="ACR104" s="111"/>
-      <c r="ACS104" s="111"/>
-      <c r="ACT104" s="111"/>
-      <c r="ACU104" s="111"/>
-      <c r="ACV104" s="111"/>
-      <c r="ACW104" s="111"/>
-      <c r="ACX104" s="111"/>
-      <c r="ACY104" s="111"/>
-      <c r="ACZ104" s="111"/>
-      <c r="ADA104" s="111"/>
-      <c r="ADB104" s="111"/>
-      <c r="ADC104" s="111"/>
-      <c r="ADD104" s="111"/>
-      <c r="ADE104" s="111"/>
-      <c r="ADF104" s="111"/>
-      <c r="ADG104" s="111"/>
-      <c r="ADH104" s="111"/>
-      <c r="ADI104" s="111"/>
-      <c r="ADJ104" s="111"/>
-      <c r="ADK104" s="111"/>
-      <c r="ADL104" s="111"/>
-      <c r="ADM104" s="111"/>
-      <c r="ADN104" s="111"/>
-      <c r="ADO104" s="111"/>
-      <c r="ADP104" s="111"/>
-      <c r="ADQ104" s="111"/>
-      <c r="ADR104" s="111"/>
-      <c r="ADS104" s="111"/>
-      <c r="ADT104" s="111"/>
-      <c r="ADU104" s="111"/>
-      <c r="ADV104" s="111"/>
-      <c r="ADW104" s="111"/>
-      <c r="ADX104" s="111"/>
-      <c r="ADY104" s="111"/>
-      <c r="ADZ104" s="111"/>
-      <c r="AEA104" s="111"/>
-      <c r="AEB104" s="111"/>
-      <c r="AEC104" s="111"/>
-      <c r="AED104" s="111"/>
-      <c r="AEE104" s="111"/>
-      <c r="AEF104" s="111"/>
-      <c r="AEG104" s="111"/>
-      <c r="AEH104" s="111"/>
-      <c r="AEI104" s="111"/>
-      <c r="AEJ104" s="111"/>
-      <c r="AEK104" s="111"/>
-      <c r="AEL104" s="111"/>
-      <c r="AEM104" s="111"/>
-      <c r="AEN104" s="111"/>
-      <c r="AEO104" s="111"/>
-      <c r="AEP104" s="111"/>
-      <c r="AEQ104" s="111"/>
-      <c r="AER104" s="111"/>
-      <c r="AES104" s="111"/>
-      <c r="AET104" s="111"/>
-      <c r="AEU104" s="111"/>
-      <c r="AEV104" s="111"/>
-      <c r="AEW104" s="111"/>
-      <c r="AEX104" s="111"/>
-      <c r="AEY104" s="111"/>
-      <c r="AEZ104" s="111"/>
-      <c r="AFA104" s="111"/>
-      <c r="AFB104" s="111"/>
-      <c r="AFC104" s="111"/>
-      <c r="AFD104" s="111"/>
-      <c r="AFE104" s="111"/>
-      <c r="AFF104" s="111"/>
-      <c r="AFG104" s="111"/>
-      <c r="AFH104" s="111"/>
-      <c r="AFI104" s="111"/>
-      <c r="AFJ104" s="111"/>
-      <c r="AFK104" s="111"/>
-      <c r="AFL104" s="111"/>
-      <c r="AFM104" s="111"/>
-      <c r="AFN104" s="111"/>
-      <c r="AFO104" s="111"/>
-      <c r="AFP104" s="111"/>
-      <c r="AFQ104" s="111"/>
-      <c r="AFR104" s="111"/>
-      <c r="AFS104" s="111"/>
-      <c r="AFT104" s="111"/>
-      <c r="AFU104" s="111"/>
-      <c r="AFV104" s="111"/>
-      <c r="AFW104" s="111"/>
-      <c r="AFX104" s="111"/>
-      <c r="AFY104" s="111"/>
-      <c r="AFZ104" s="111"/>
-      <c r="AGA104" s="111"/>
-      <c r="AGB104" s="111"/>
-      <c r="AGC104" s="111"/>
-      <c r="AGD104" s="111"/>
-      <c r="AGE104" s="111"/>
-      <c r="AGF104" s="111"/>
-      <c r="AGG104" s="111"/>
-      <c r="AGH104" s="111"/>
-      <c r="AGI104" s="111"/>
-      <c r="AGJ104" s="111"/>
-      <c r="AGK104" s="111"/>
-      <c r="AGL104" s="111"/>
-      <c r="AGM104" s="111"/>
-      <c r="AGN104" s="111"/>
-      <c r="AGO104" s="111"/>
-      <c r="AGP104" s="111"/>
-      <c r="AGQ104" s="111"/>
-      <c r="AGR104" s="111"/>
-      <c r="AGS104" s="111"/>
-      <c r="AGT104" s="111"/>
-      <c r="AGU104" s="111"/>
-      <c r="AGV104" s="111"/>
-      <c r="AGW104" s="111"/>
-      <c r="AGX104" s="111"/>
-      <c r="AGY104" s="111"/>
-      <c r="AGZ104" s="111"/>
-      <c r="AHA104" s="111"/>
-      <c r="AHB104" s="111"/>
-      <c r="AHC104" s="111"/>
-      <c r="AHD104" s="111"/>
-      <c r="AHE104" s="111"/>
-      <c r="AHF104" s="111"/>
-      <c r="AHG104" s="111"/>
-      <c r="AHH104" s="111"/>
-      <c r="AHI104" s="111"/>
-      <c r="AHJ104" s="111"/>
-      <c r="AHK104" s="111"/>
-      <c r="AHL104" s="111"/>
-      <c r="AHM104" s="111"/>
-      <c r="AHN104" s="111"/>
-      <c r="AHO104" s="111"/>
-      <c r="AHP104" s="111"/>
-      <c r="AHQ104" s="111"/>
-      <c r="AHR104" s="111"/>
-      <c r="AHS104" s="111"/>
-      <c r="AHT104" s="111"/>
-      <c r="AHU104" s="111"/>
-      <c r="AHV104" s="111"/>
-      <c r="AHW104" s="111"/>
-      <c r="AHX104" s="111"/>
-      <c r="AHY104" s="111"/>
-      <c r="AHZ104" s="111"/>
-      <c r="AIA104" s="111"/>
-      <c r="AIB104" s="111"/>
-      <c r="AIC104" s="111"/>
-      <c r="AID104" s="111"/>
-      <c r="AIE104" s="111"/>
-      <c r="AIF104" s="111"/>
-      <c r="AIG104" s="111"/>
-      <c r="AIH104" s="111"/>
-      <c r="AII104" s="111"/>
-      <c r="AIJ104" s="111"/>
-      <c r="AIK104" s="111"/>
-      <c r="AIL104" s="111"/>
-      <c r="AIM104" s="111"/>
-      <c r="AIN104" s="111"/>
-      <c r="AIO104" s="111"/>
-      <c r="AIP104" s="111"/>
-      <c r="AIQ104" s="111"/>
-      <c r="AIR104" s="111"/>
-      <c r="AIS104" s="111"/>
-      <c r="AIT104" s="111"/>
-      <c r="AIU104" s="111"/>
-      <c r="AIV104" s="111"/>
-      <c r="AIW104" s="111"/>
-      <c r="AIX104" s="111"/>
-      <c r="AIY104" s="111"/>
-      <c r="AIZ104" s="111"/>
-      <c r="AJA104" s="111"/>
-      <c r="AJB104" s="111"/>
-      <c r="AJC104" s="111"/>
-      <c r="AJD104" s="111"/>
-      <c r="AJE104" s="111"/>
-      <c r="AJF104" s="111"/>
-      <c r="AJG104" s="111"/>
-      <c r="AJH104" s="111"/>
-      <c r="AJI104" s="111"/>
-      <c r="AJJ104" s="111"/>
-      <c r="AJK104" s="111"/>
-      <c r="AJL104" s="111"/>
-      <c r="AJM104" s="111"/>
-      <c r="AJN104" s="111"/>
-      <c r="AJO104" s="111"/>
-      <c r="AJP104" s="111"/>
-      <c r="AJQ104" s="111"/>
-      <c r="AJR104" s="111"/>
-      <c r="AJS104" s="111"/>
-      <c r="AJT104" s="111"/>
-      <c r="AJU104" s="111"/>
-      <c r="AJV104" s="111"/>
-      <c r="AJW104" s="111"/>
-      <c r="AJX104" s="111"/>
-      <c r="AJY104" s="111"/>
-      <c r="AJZ104" s="111"/>
-      <c r="AKA104" s="111"/>
-      <c r="AKB104" s="111"/>
-      <c r="AKC104" s="111"/>
-      <c r="AKD104" s="111"/>
-      <c r="AKE104" s="111"/>
-      <c r="AKF104" s="111"/>
-      <c r="AKG104" s="111"/>
-      <c r="AKH104" s="111"/>
-      <c r="AKI104" s="111"/>
-      <c r="AKJ104" s="111"/>
-      <c r="AKK104" s="111"/>
-      <c r="AKL104" s="111"/>
-      <c r="AKM104" s="111"/>
-      <c r="AKN104" s="111"/>
-      <c r="AKO104" s="111"/>
-      <c r="AKP104" s="111"/>
-      <c r="AKQ104" s="111"/>
-      <c r="AKR104" s="111"/>
-      <c r="AKS104" s="111"/>
-      <c r="AKT104" s="111"/>
-      <c r="AKU104" s="111"/>
-      <c r="AKV104" s="111"/>
-      <c r="AKW104" s="111"/>
-      <c r="AKX104" s="111"/>
-      <c r="AKY104" s="111"/>
-      <c r="AKZ104" s="111"/>
-      <c r="ALA104" s="111"/>
-      <c r="ALB104" s="111"/>
-      <c r="ALC104" s="111"/>
-      <c r="ALD104" s="111"/>
-      <c r="ALE104" s="111"/>
-      <c r="ALF104" s="111"/>
-      <c r="ALG104" s="111"/>
-      <c r="ALH104" s="111"/>
-      <c r="ALI104" s="111"/>
-      <c r="ALJ104" s="111"/>
-      <c r="ALK104" s="111"/>
-      <c r="ALL104" s="111"/>
-      <c r="ALM104" s="111"/>
-      <c r="ALN104" s="111"/>
-      <c r="ALO104" s="111"/>
-      <c r="ALP104" s="111"/>
-      <c r="ALQ104" s="111"/>
-      <c r="ALR104" s="111"/>
-      <c r="ALS104" s="111"/>
-      <c r="ALT104" s="111"/>
-      <c r="ALU104" s="111"/>
-      <c r="ALV104" s="111"/>
-      <c r="ALW104" s="111"/>
-      <c r="ALX104" s="111"/>
-      <c r="ALY104" s="111"/>
-      <c r="ALZ104" s="111"/>
-      <c r="AMA104" s="111"/>
-      <c r="AMB104" s="111"/>
-      <c r="AMC104" s="111"/>
-    </row>
-    <row r="105" spans="1:1017" ht="15">
+    </row>
+    <row r="105" spans="2:14" ht="15">
       <c r="B105" s="26">
+        <v>45938</v>
+      </c>
+      <c r="E105" s="4">
+        <v>-3000</v>
+      </c>
+      <c r="F105" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="H105" s="38"/>
+    </row>
+    <row r="106" spans="2:14" ht="15">
+      <c r="B106" s="26">
         <v>45960</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E106" s="4">
         <v>-500</v>
       </c>
-      <c r="F105" s="28" t="s">
+      <c r="F106" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="H105" s="90">
+      <c r="H106" s="90">
         <v>46018</v>
       </c>
-      <c r="L105" s="4">
-        <v>-10000</v>
-      </c>
-      <c r="M105" s="4"/>
-      <c r="N105" s="92" t="s">
+      <c r="L106" s="4">
+        <v>-6000</v>
+      </c>
+      <c r="M106" s="4"/>
+      <c r="N106" s="92" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:1017" ht="15">
-      <c r="B106" s="26">
+    <row r="107" spans="2:14" ht="15">
+      <c r="B107" s="26">
         <v>45966</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E107" s="4">
         <v>-606.5</v>
       </c>
-      <c r="F106" s="28" t="s">
+      <c r="F107" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="H106" s="90">
+      <c r="H107" s="90">
         <v>46022</v>
       </c>
-      <c r="K106" s="4">
+      <c r="K107" s="4">
         <f>-3*184</f>
         <v>-552</v>
-      </c>
-      <c r="L106" s="4"/>
-      <c r="M106" s="4"/>
-      <c r="N106" s="92" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1017" ht="15">
-      <c r="B107" s="26">
-        <v>46022</v>
-      </c>
-      <c r="E107" s="4">
-        <f>-CostBlocks25!$L$24*2/3</f>
-        <v>-1830</v>
-      </c>
-      <c r="F107" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="H107" s="90">
-        <v>46022</v>
-      </c>
-      <c r="K107" s="4">
-        <f>-3*CostBlocks25!$C$24</f>
-        <v>-528</v>
       </c>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
       <c r="N107" s="92" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1017" ht="15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" ht="15">
       <c r="B108" s="26">
         <v>46022</v>
       </c>
       <c r="E108" s="4">
+        <f>-CostBlocks25!$L$24*2/3</f>
+        <v>-1830</v>
+      </c>
+      <c r="F108" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="H108" s="90">
+        <v>46022</v>
+      </c>
+      <c r="K108" s="4">
+        <f>-3*CostBlocks25!$C$24</f>
+        <v>-528</v>
+      </c>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="92" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" ht="15">
+      <c r="B109" s="26">
+        <v>46022</v>
+      </c>
+      <c r="E109" s="4">
         <f>-3*CostBlocks25!$C$19</f>
         <v>-1815</v>
       </c>
-      <c r="F108" s="28" t="s">
+      <c r="F109" s="28" t="s">
         <v>85</v>
-      </c>
-      <c r="H108" s="90">
-        <v>46022</v>
-      </c>
-      <c r="L108" s="4"/>
-      <c r="M108" s="4">
-        <f>-((J112+K112)*0.1)*1.02</f>
-        <v>-3327.3420000000006</v>
-      </c>
-      <c r="N108" s="92" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1017" ht="15">
-      <c r="B109" s="26">
-        <v>46022</v>
-      </c>
-      <c r="D109" s="4">
-        <v>10000</v>
-      </c>
-      <c r="F109" s="92" t="s">
-        <v>8</v>
       </c>
       <c r="H109" s="90">
         <v>46022</v>
       </c>
       <c r="L109" s="4"/>
       <c r="M109" s="4">
-        <f>(L112*0.05)*1.02-M48-M86</f>
-        <v>-479.78</v>
+        <f>-((J113+K113)*0.1)*1.02</f>
+        <v>-2817.3420000000006</v>
       </c>
       <c r="N109" s="92" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" ht="15">
+      <c r="B110" s="26">
+        <v>46022</v>
+      </c>
+      <c r="D110" s="4">
+        <v>6000</v>
+      </c>
+      <c r="F110" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" s="90">
+        <v>46022</v>
+      </c>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4">
+        <f>(L113*0.05)*1.02-M48-M86</f>
+        <v>-275.77999999999997</v>
+      </c>
+      <c r="N110" s="92" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="110" spans="1:1017" ht="15">
-      <c r="B110" s="30">
+    <row r="111" spans="2:14" ht="15">
+      <c r="B111" s="30">
         <v>46022</v>
       </c>
-      <c r="C110" s="31">
-        <f>SUM(C103:E109)</f>
-        <v>33538.700000000004</v>
-      </c>
-      <c r="D110" s="31"/>
-      <c r="E110" s="31"/>
-      <c r="F110" s="32"/>
-      <c r="H110" s="30">
+      <c r="C111" s="31">
+        <f>SUM(C103:E110)</f>
+        <v>26613.700000000004</v>
+      </c>
+      <c r="D111" s="31"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="32"/>
+      <c r="H111" s="30">
         <v>46022</v>
       </c>
-      <c r="I110" s="31">
-        <f>SUM(I103:M109)</f>
-        <v>477.72799999999802</v>
-      </c>
-      <c r="J110" s="31"/>
-      <c r="K110" s="31"/>
-      <c r="L110" s="33"/>
-      <c r="M110" s="33"/>
-      <c r="N110" s="34"/>
-    </row>
-    <row r="111" spans="1:1017" ht="15">
-      <c r="B111" s="5"/>
-      <c r="C111" s="24"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-    </row>
-    <row r="112" spans="1:1017" ht="15">
-      <c r="B112" s="35" t="s">
+      <c r="I111" s="31">
+        <f>SUM(I103:M110)</f>
+        <v>191.72799999999802</v>
+      </c>
+      <c r="J111" s="31"/>
+      <c r="K111" s="31"/>
+      <c r="L111" s="33"/>
+      <c r="M111" s="33"/>
+      <c r="N111" s="34"/>
+    </row>
+    <row r="112" spans="2:14" ht="15">
+      <c r="B112" s="5"/>
+      <c r="C112" s="24"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+    </row>
+    <row r="113" spans="2:13" ht="15">
+      <c r="B113" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="C112" s="36">
-        <f>C110+P110+I110</f>
-        <v>34016.428</v>
-      </c>
-      <c r="D112" s="36"/>
-      <c r="E112" s="36"/>
-      <c r="G112" s="4"/>
-      <c r="I112" s="36" t="s">
+      <c r="C113" s="36">
+        <f>C111+P111+I111</f>
+        <v>26805.428000000004</v>
+      </c>
+      <c r="D113" s="36"/>
+      <c r="E113" s="36"/>
+      <c r="G113" s="4"/>
+      <c r="I113" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J112" s="37">
-        <f>SUM(J7:J109)</f>
-        <v>35800</v>
-      </c>
-      <c r="K112" s="37">
-        <f>SUM(K7:K109)</f>
+      <c r="J113" s="37">
+        <f>SUM(J7:J110)</f>
+        <v>30800</v>
+      </c>
+      <c r="K113" s="37">
+        <f>SUM(K7:K110)</f>
         <v>-3179</v>
       </c>
-      <c r="L112" s="37">
-        <f t="shared" ref="L112:M112" si="0">SUM(L7:L109)</f>
-        <v>-28500</v>
-      </c>
-      <c r="M112" s="37">
+      <c r="L113" s="37">
+        <f t="shared" ref="L113:M113" si="0">SUM(L7:L110)</f>
+        <v>-24500</v>
+      </c>
+      <c r="M113" s="37">
         <f t="shared" si="0"/>
-        <v>-10271.102000000001</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" ht="15">
-      <c r="B113" s="38"/>
-    </row>
-    <row r="114" spans="2:7" ht="15">
+        <v>-9557.1020000000008</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" ht="15">
       <c r="B114" s="38"/>
-      <c r="G114" s="4"/>
-    </row>
-    <row r="115" spans="2:7" ht="15">
+    </row>
+    <row r="115" spans="2:13" ht="15">
       <c r="B115" s="38"/>
-    </row>
-    <row r="116" spans="2:7" ht="15">
+      <c r="G115" s="4"/>
+    </row>
+    <row r="116" spans="2:13" ht="15">
       <c r="B116" s="38"/>
     </row>
-    <row r="117" spans="2:7" ht="15">
+    <row r="117" spans="2:13" ht="15">
       <c r="B117" s="38"/>
-      <c r="C117" s="24"/>
-      <c r="F117" s="4"/>
-    </row>
-    <row r="118" spans="2:7" ht="15">
+    </row>
+    <row r="118" spans="2:13" ht="15">
       <c r="B118" s="38"/>
-    </row>
-    <row r="119" spans="2:7" ht="15">
+      <c r="C118" s="24"/>
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="2:13" ht="15">
       <c r="B119" s="38"/>
-      <c r="G119" s="4"/>
-    </row>
-    <row r="120" spans="2:7" ht="15">
+    </row>
+    <row r="120" spans="2:13" ht="15">
       <c r="B120" s="38"/>
-    </row>
-    <row r="121" spans="2:7" ht="15">
+      <c r="G120" s="4"/>
+    </row>
+    <row r="121" spans="2:13" ht="15">
       <c r="B121" s="38"/>
-      <c r="G121" s="4"/>
-    </row>
-    <row r="122" spans="2:7" ht="15">
+    </row>
+    <row r="122" spans="2:13" ht="15">
       <c r="B122" s="38"/>
-    </row>
-    <row r="123" spans="2:7" ht="15">
+      <c r="G122" s="4"/>
+    </row>
+    <row r="123" spans="2:13" ht="15">
       <c r="B123" s="38"/>
     </row>
-    <row r="124" spans="2:7" ht="15">
+    <row r="124" spans="2:13" ht="15">
       <c r="B124" s="38"/>
-      <c r="C124" s="24"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-    </row>
-    <row r="125" spans="2:7" ht="15">
+    </row>
+    <row r="125" spans="2:13" ht="15">
       <c r="B125" s="38"/>
+      <c r="C125" s="24"/>
+      <c r="F125" s="4"/>
       <c r="G125" s="4"/>
     </row>
-    <row r="126" spans="2:7" ht="15">
+    <row r="126" spans="2:13" ht="15">
       <c r="B126" s="38"/>
-      <c r="F126" s="11"/>
-    </row>
-    <row r="127" spans="2:7" ht="15">
+      <c r="G126" s="4"/>
+    </row>
+    <row r="127" spans="2:13" ht="15">
       <c r="B127" s="38"/>
-    </row>
-    <row r="128" spans="2:7" ht="15">
+      <c r="F127" s="11"/>
+    </row>
+    <row r="128" spans="2:13" ht="15">
       <c r="B128" s="38"/>
     </row>
     <row r="129" spans="2:8" ht="15">
       <c r="B129" s="38"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
     </row>
     <row r="130" spans="2:8" ht="15">
       <c r="B130" s="38"/>
-      <c r="F130" s="11"/>
+      <c r="F130" s="4"/>
       <c r="G130" s="4"/>
     </row>
     <row r="131" spans="2:8" ht="15">
       <c r="B131" s="38"/>
       <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
+      <c r="G131" s="4"/>
     </row>
     <row r="132" spans="2:8" ht="15">
-      <c r="G132" s="4"/>
-    </row>
-    <row r="136" spans="2:8" ht="15">
-      <c r="B136" s="109"/>
-      <c r="C136" s="109"/>
+      <c r="B132" s="38"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+    </row>
+    <row r="133" spans="2:8" ht="15">
+      <c r="G133" s="4"/>
     </row>
     <row r="137" spans="2:8" ht="15">
-      <c r="F137" s="11"/>
-      <c r="H137" s="39"/>
+      <c r="B137" s="109"/>
+      <c r="C137" s="109"/>
     </row>
     <row r="138" spans="2:8" ht="15">
+      <c r="F138" s="11"/>
       <c r="H138" s="39"/>
     </row>
     <row r="139" spans="2:8" ht="15">
@@ -4338,11 +3322,8 @@
     <row r="148" spans="8:14" ht="15">
       <c r="H148" s="39"/>
     </row>
-    <row r="150" spans="8:14" ht="15">
-      <c r="I150" s="38"/>
-      <c r="J150" s="2"/>
-      <c r="L150" s="40"/>
-      <c r="M150" s="40"/>
+    <row r="149" spans="8:14" ht="15">
+      <c r="H149" s="39"/>
     </row>
     <row r="151" spans="8:14" ht="15">
       <c r="I151" s="38"/>
@@ -4364,15 +3345,15 @@
     </row>
     <row r="154" spans="8:14" ht="15">
       <c r="I154" s="38"/>
+      <c r="J154" s="2"/>
+      <c r="L154" s="40"/>
+      <c r="M154" s="40"/>
     </row>
     <row r="155" spans="8:14" ht="15">
       <c r="I155" s="38"/>
-      <c r="N155" s="11"/>
     </row>
     <row r="156" spans="8:14" ht="15">
       <c r="I156" s="38"/>
-      <c r="L156" s="40"/>
-      <c r="M156" s="40"/>
       <c r="N156" s="11"/>
     </row>
     <row r="157" spans="8:14" ht="15">
@@ -4389,22 +3370,22 @@
     </row>
     <row r="159" spans="8:14" ht="15">
       <c r="I159" s="38"/>
+      <c r="L159" s="40"/>
+      <c r="M159" s="40"/>
       <c r="N159" s="11"/>
     </row>
     <row r="160" spans="8:14" ht="15">
       <c r="I160" s="38"/>
-      <c r="L160" s="40"/>
-      <c r="M160" s="40"/>
       <c r="N160" s="11"/>
     </row>
     <row r="161" spans="3:14" ht="15">
       <c r="I161" s="38"/>
+      <c r="L161" s="40"/>
+      <c r="M161" s="40"/>
       <c r="N161" s="11"/>
     </row>
     <row r="162" spans="3:14" ht="15">
       <c r="I162" s="38"/>
-      <c r="L162" s="40"/>
-      <c r="M162" s="40"/>
       <c r="N162" s="11"/>
     </row>
     <row r="163" spans="3:14" ht="15">
@@ -4421,6 +3402,9 @@
     </row>
     <row r="165" spans="3:14" ht="15">
       <c r="I165" s="38"/>
+      <c r="L165" s="40"/>
+      <c r="M165" s="40"/>
+      <c r="N165" s="11"/>
     </row>
     <row r="166" spans="3:14" ht="15">
       <c r="I166" s="38"/>
@@ -4429,22 +3413,21 @@
       <c r="I167" s="38"/>
     </row>
     <row r="168" spans="3:14" ht="15">
-      <c r="I168" s="41"/>
+      <c r="I168" s="38"/>
     </row>
     <row r="169" spans="3:14" ht="15">
-      <c r="F169" s="11"/>
-      <c r="I169" s="38"/>
-      <c r="N169" s="11"/>
+      <c r="I169" s="41"/>
     </row>
     <row r="170" spans="3:14" ht="15">
-      <c r="C170" s="37"/>
-      <c r="D170" s="37"/>
       <c r="F170" s="11"/>
       <c r="I170" s="38"/>
+      <c r="N170" s="11"/>
     </row>
     <row r="171" spans="3:14" ht="15">
+      <c r="C171" s="37"/>
+      <c r="D171" s="37"/>
+      <c r="F171" s="11"/>
       <c r="I171" s="38"/>
-      <c r="N171" s="11"/>
     </row>
     <row r="172" spans="3:14" ht="15">
       <c r="I172" s="38"/>
@@ -4454,10 +3437,14 @@
       <c r="I173" s="38"/>
       <c r="N173" s="11"/>
     </row>
+    <row r="174" spans="3:14" ht="15">
+      <c r="I174" s="38"/>
+      <c r="N174" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B137:C137"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39375000000000004" bottom="0.39375000000000004" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
